--- a/Assignment/Module 2/Assignment Scenarios.xlsx
+++ b/Assignment/Module 2/Assignment Scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tops\Assignment\Module 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="661" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="661" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PEN" sheetId="1" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1757,13 +1757,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1805,7 +1798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1826,9 +1819,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3515,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4085,7 +4075,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,287 +4084,287 @@
     <col min="3" max="3" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D22" s="1"/>
@@ -4389,7 +4379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5715,7 +5704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
